--- a/envir/dom.xlsx
+++ b/envir/dom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\AbaAba\envir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD8667E-5CDC-4F7D-A39A-B3D5E8072BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C350654-9B1A-4F05-A7B7-F07507573A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="246">
   <si>
     <t>xpath</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -662,9 +662,6 @@
     <t>/html/body/div[1]/nav[2]/div[2]/ul/li[2]</t>
   </si>
   <si>
-    <t>/html/body/div[4]/div[1]/i</t>
-  </si>
-  <si>
     <t>0:04:02:02:01:06</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -727,13 +724,194 @@
   <si>
     <t>color</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#145A32</t>
+  </si>
+  <si>
+    <t>#512E5F</t>
+  </si>
+  <si>
+    <t>#1B4F72</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#641E16</t>
+  </si>
+  <si>
+    <t>#21618C</t>
+  </si>
+  <si>
+    <t>#154360</t>
+  </si>
+  <si>
+    <t>#1A5276</t>
+  </si>
+  <si>
+    <t>#2874A6</t>
+  </si>
+  <si>
+    <t>#2471A3</t>
+  </si>
+  <si>
+    <t>#3498DB</t>
+  </si>
+  <si>
+    <t>#2980B9</t>
+  </si>
+  <si>
+    <t>0:04:02:03:01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:04:02:03:01:01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:04:02:03:01:03</t>
+  </si>
+  <si>
+    <t>0:04:02:03:01:02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:04:02:03:01:04</t>
+  </si>
+  <si>
+    <t>0:04:02:03:01:05</t>
+  </si>
+  <si>
+    <t>0:04:02:03:01:05:01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:04:02:04:01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:04:02:04:01:01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:04:02:04:01:02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:04:02:04:01:03</t>
+  </si>
+  <si>
+    <t>0:04:02:04:01:04</t>
+  </si>
+  <si>
+    <t>0:04:02:04:01:05</t>
+  </si>
+  <si>
+    <t>0:04:02:04:01:05:01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:04:02:05:01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:04:02:05:01:01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:04:02:05:01:02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:04:02:05:01:03</t>
+  </si>
+  <si>
+    <t>0:04:02:05:01:04</t>
+  </si>
+  <si>
+    <t>0:04:02:05:01:05</t>
+  </si>
+  <si>
+    <t>0:04:02:05:01:05:01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1F618D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[1]/i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:04:02:02:01:05:02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#5499C7</t>
+  </si>
+  <si>
+    <t>#5DADE2</t>
+  </si>
+  <si>
+    <t>#85C1E9</t>
+  </si>
+  <si>
+    <t>#7FB3D5</t>
+  </si>
+  <si>
+    <t>#A9CCE3</t>
+  </si>
+  <si>
+    <t>#AED6F1</t>
+  </si>
+  <si>
+    <t>#D6EAF8</t>
+  </si>
+  <si>
+    <t>#EBF5FB</t>
+  </si>
+  <si>
+    <t>#0E6655</t>
+  </si>
+  <si>
+    <t>#117A65</t>
+  </si>
+  <si>
+    <t>#138D75</t>
+  </si>
+  <si>
+    <t>#117864</t>
+  </si>
+  <si>
+    <t>#148F77</t>
+  </si>
+  <si>
+    <t>#17A589</t>
+  </si>
+  <si>
+    <t>#1ABC9C</t>
+  </si>
+  <si>
+    <t>#bfdbee</t>
+  </si>
+  <si>
+    <t>#bbdaf0</t>
+  </si>
+  <si>
+    <t>#cbdce7</t>
+  </si>
+  <si>
+    <t>#edf3f6</t>
+  </si>
+  <si>
+    <t>#ffffff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -762,8 +940,32 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF3F3844"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3844"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -800,6 +1002,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -828,13 +1036,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -844,14 +1049,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -860,6 +1061,35 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1144,199 +1374,238 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.5" style="6" customWidth="1"/>
-    <col min="2" max="2" width="66.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="20.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="6"/>
-    <col min="5" max="6" width="10.375" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="36.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="66.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.125" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="3"/>
+    <col min="5" max="5" width="10.375" style="17" customWidth="1"/>
+    <col min="6" max="6" width="10.375" style="14" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="26">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" s="6" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="7">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="8">
-        <v>6.9444444444444447E-4</v>
-      </c>
-      <c r="D3" s="6" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="8">
-        <v>1.3888888888888889E-3</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="F4" s="15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="10">
+        <v>2.7893518518518519E-3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="8">
-        <v>2.0833333333333333E-3</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="7">
-        <v>2.7777777777777779E-3</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="7">
-        <v>2.7893518518518519E-3</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="F10" s="15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="F11" s="15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>6</v>
+      <c r="D12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="15" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1346,11 +1615,15 @@
       <c r="B13" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="22" t="s">
         <v>43</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="15" t="s">
+        <v>223</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>94</v>
@@ -1363,182 +1636,231 @@
       <c r="B14" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="22" t="s">
         <v>99</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+      <c r="E14" s="17"/>
+      <c r="F14" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="D15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
+      <c r="D16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="17"/>
+      <c r="F17" s="15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="D18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="17"/>
+      <c r="F18" s="15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
+      <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="12" t="s">
-        <v>6</v>
+      <c r="D20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="15" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="17">
         <v>456789</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="F21" s="15" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="B23" s="3" t="s">
+      <c r="D22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="17"/>
+      <c r="F22" s="15" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="B24" s="3" t="s">
+      <c r="D23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="17"/>
+      <c r="F23" s="15" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>6</v>
+      <c r="D24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="17"/>
+      <c r="F24" s="15" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="F25" s="15" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1548,11 +1870,15 @@
       <c r="B27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="22" t="s">
         <v>109</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>58</v>
+      </c>
+      <c r="E27" s="17"/>
+      <c r="F27" s="15" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1562,56 +1888,72 @@
       <c r="B28" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="22" t="s">
         <v>111</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
+      <c r="E28" s="17"/>
+      <c r="F28" s="15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="D29" s="12" t="s">
-        <v>6</v>
+      <c r="D29" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="17"/>
+      <c r="F29" s="15" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
-        <v>178</v>
+      <c r="A30" s="9" t="s">
+        <v>177</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="D30" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="s">
+      <c r="D30" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="17"/>
+      <c r="F30" s="15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>179</v>
+      <c r="D31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="17"/>
+      <c r="F31" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1621,932 +1963,1158 @@
       <c r="B32" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="14" t="s">
-        <v>178</v>
+      <c r="D32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="17"/>
+      <c r="F32" s="15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>177</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14" t="s">
+      <c r="D33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="17"/>
+      <c r="F33" s="15" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="12" t="s">
+      <c r="D34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="17"/>
+      <c r="F34" s="15" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
+      <c r="D35" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="17"/>
+      <c r="F35" s="15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="14" t="s">
+      <c r="F36" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="14" t="s">
+      <c r="D37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="17"/>
+      <c r="F37" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="D38" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="12" t="s">
+      <c r="D38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="D39" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
+      <c r="D39" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="17"/>
+      <c r="F39" s="15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="14" t="s">
+      <c r="F40" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="14" t="s">
+      <c r="D41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="17"/>
+      <c r="F41" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D42" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="22" t="s">
         <v>105</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
+      <c r="E43" s="17"/>
+      <c r="F43" s="15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C44" s="18">
+      <c r="C44" s="11">
         <v>2.8009259259259259E-3</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
+      <c r="D44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="18"/>
+      <c r="F44" s="15" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C45" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
+      <c r="D45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="17"/>
+      <c r="F45" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="6" t="s">
+      <c r="F46" s="15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="s">
+      <c r="D47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="6" t="s">
+      <c r="D48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
+      <c r="D49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="12" t="s">
+      <c r="D50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="17"/>
+      <c r="F50" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
+      <c r="D51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="17"/>
+      <c r="F51" s="15" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
+      <c r="F52" s="15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="6" t="s">
+      <c r="F53" s="15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D54" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="6" t="s">
+      <c r="F54" s="15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C55" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="D55" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="6" t="s">
+      <c r="D55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C56" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="D56" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
+      <c r="D56" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C57" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="D57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" s="17"/>
+      <c r="F57" s="15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="C58" s="17" t="s">
+      <c r="C58" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="14" t="s">
+      <c r="D58" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="17"/>
+      <c r="F58" s="14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C59" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="19" t="s">
+      <c r="C59" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" s="17"/>
+      <c r="F59" s="14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="B60" s="19" t="s">
+      <c r="B60" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="D60" s="19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="12" t="s">
+      <c r="D60" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" s="19"/>
+      <c r="F60" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C61" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="6" t="s">
+      <c r="C61" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" s="17"/>
+      <c r="F61" s="15" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C62" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="D62" s="6" t="s">
+      <c r="C62" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="6" t="s">
+      <c r="F62" s="15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C63" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="D63" s="6" t="s">
+      <c r="C63" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="6" t="s">
+      <c r="F63" s="15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C64" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="D64" s="6" t="s">
+      <c r="C64" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="6" t="s">
+      <c r="F64" s="15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C65" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="6" t="s">
+      <c r="C65" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C66" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="14" t="s">
+      <c r="C66" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C67" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="3" t="s">
+      <c r="C67" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" s="17"/>
+      <c r="F67" s="14" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C68" s="20" t="s">
+      <c r="C68" s="13" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="12" t="s">
+      <c r="E68" s="17"/>
+      <c r="F68" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="B69" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="6" t="s">
+      <c r="C69" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" s="17"/>
+      <c r="F69" s="15" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C70" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="D70" s="6" t="s">
+      <c r="C70" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="6" t="s">
+      <c r="F70" s="15" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C71" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="D71" s="6" t="s">
+      <c r="C71" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="6" t="s">
+      <c r="F71" s="15" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C72" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="D72" s="6" t="s">
+      <c r="C72" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="6" t="s">
+      <c r="F72" s="15" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C73" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="6" t="s">
+      <c r="C73" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F73" s="15" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C74" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="14" t="s">
+      <c r="C74" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F74" s="15" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C75" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
+      <c r="C75" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75" s="17"/>
+      <c r="F75" s="14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C76" s="20" t="s">
+      <c r="C76" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="12" t="s">
+      <c r="D76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76" s="17"/>
+      <c r="F76" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="B77" s="12" t="s">
+      <c r="B77" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C77" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="6" t="s">
+      <c r="C77" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" s="17"/>
+      <c r="F77" s="15" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C78" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="D78" s="6" t="s">
+      <c r="C78" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D78" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="6" t="s">
+      <c r="F78" s="15" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C79" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="D79" s="6" t="s">
+      <c r="C79" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D79" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="6" t="s">
+      <c r="F79" s="15" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C80" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="D80" s="6" t="s">
+      <c r="C80" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="6" t="s">
+      <c r="F80" s="15" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C81" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="6" t="s">
+      <c r="C81" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F81" s="15" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C82" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="14" t="s">
+      <c r="C82" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F82" s="15" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C83" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="9" t="s">
+      <c r="C83" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83" s="17"/>
+      <c r="F83" s="14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A84" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C84" s="18">
+      <c r="C84" s="11">
         <v>2.8124999999999995E-3</v>
       </c>
-      <c r="D84" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
+      <c r="D84" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" s="18"/>
+      <c r="F84" s="15" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F85" s="15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C85" s="18" t="s">
+      <c r="C86" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="D85" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="B86" s="6" t="s">
+      <c r="D86" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F86" s="15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C86" s="18" t="s">
+      <c r="C87" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="D86" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="C87" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="6" t="s">
+      <c r="D87" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F87" s="15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C88" s="11">
+      <c r="C88" s="5">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="D88" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="6" t="s">
+      <c r="D88" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F88" s="15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C89" s="16">
+      <c r="C89" s="25">
         <v>3.483796296296296E-3</v>
       </c>
-      <c r="D89" s="6" t="s">
+      <c r="D89" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="6" t="s">
+      <c r="F89" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C90" s="16">
+      <c r="C90" s="25">
         <v>3.4953703703703705E-3</v>
       </c>
-      <c r="D90" s="6" t="s">
+      <c r="D90" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="6" t="s">
+      <c r="F90" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C91" s="16">
+      <c r="C91" s="25">
         <v>3.5069444444444445E-3</v>
       </c>
-      <c r="D91" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="6" t="s">
+      <c r="D91" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F91" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C92" s="16">
+      <c r="C92" s="25">
         <v>3.5185185185185185E-3</v>
       </c>
-      <c r="D92" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="6" t="s">
+      <c r="D92" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F92" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C93" s="16">
+      <c r="C93" s="25">
         <v>3.530092592592592E-3</v>
       </c>
-      <c r="D93" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="6" t="s">
+      <c r="D93" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F93" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C94" s="11">
+      <c r="C94" s="5">
         <v>4.1666666666666666E-3</v>
       </c>
-      <c r="D94" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="6" t="s">
+      <c r="D94" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F94" s="15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B95" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C95" s="16">
+      <c r="C95" s="25">
         <v>4.1782407407407402E-3</v>
       </c>
-      <c r="D95" s="6" t="s">
+      <c r="D95" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="6" t="s">
+      <c r="F95" s="15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B96" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C96" s="16">
+      <c r="C96" s="25">
         <v>4.1898148148148146E-3</v>
       </c>
-      <c r="D96" s="6" t="s">
+      <c r="D96" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="6" t="s">
+      <c r="F96" s="15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C97" s="16">
+      <c r="C97" s="25">
         <v>4.2013888888888891E-3</v>
       </c>
-      <c r="D97" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="6" t="s">
+      <c r="D97" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F97" s="15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C98" s="16">
+      <c r="C98" s="25">
         <v>4.2129629629629626E-3</v>
       </c>
-      <c r="D98" s="6" t="s">
-        <v>6</v>
+      <c r="D98" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F98" s="15" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
